--- a/DOCS/Drafts/FRTS.xlsx
+++ b/DOCS/Drafts/FRTS.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Test Ref</t>
   </si>
@@ -42,190 +42,220 @@
     <t>SE_05_TEST_01</t>
   </si>
   <si>
-    <t>FR1/FR2</t>
-  </si>
-  <si>
-    <t>When they select new walk user is prompted for the details of the walk name and a tour object will be created from that data</t>
-  </si>
-  <si>
-    <t>details of the walk</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>save name and short description of walk</t>
-  </si>
-  <si>
     <t>SE_05_TEST_02</t>
   </si>
   <si>
     <t>FR1</t>
   </si>
   <si>
-    <t>When tour starts they should get initial point (where the user is standing)</t>
-  </si>
-  <si>
-    <t>activity starts</t>
-  </si>
-  <si>
-    <t>GPS coordinate where user is standing (Peg coming down?)</t>
-  </si>
-  <si>
-    <t>correct coordinates</t>
-  </si>
-  <si>
     <t>SE_05_TEST_03</t>
   </si>
   <si>
     <t>FR3</t>
   </si>
   <si>
-    <t>User adds a location to the new walk</t>
-  </si>
-  <si>
-    <t>Enter name for location</t>
-  </si>
-  <si>
-    <t>Location on map</t>
-  </si>
-  <si>
-    <t>Correct location added to map</t>
-  </si>
-  <si>
     <t>SE_05_TEST_04</t>
   </si>
   <si>
-    <t>User adds a Short description to the location</t>
-  </si>
-  <si>
-    <t>Enter short Description</t>
-  </si>
-  <si>
-    <t>Location on map with short description</t>
-  </si>
-  <si>
-    <t>correct description labeled with it's location</t>
-  </si>
-  <si>
     <t>SE_05_TEST_05</t>
   </si>
   <si>
-    <t>FR3/FR4</t>
-  </si>
-  <si>
-    <t>Time stamp is made when location is added</t>
-  </si>
-  <si>
-    <t>Added location</t>
-  </si>
-  <si>
-    <t>Time in date format on map with location</t>
-  </si>
-  <si>
-    <t>correct time and date</t>
-  </si>
-  <si>
     <t>SE_05_TEST_06</t>
   </si>
   <si>
     <t>FR4</t>
   </si>
   <si>
-    <t>User adds a photo to a specific location</t>
-  </si>
-  <si>
-    <t>Photo from Gallery</t>
-  </si>
-  <si>
     <t>Photo added to the location on the map</t>
   </si>
   <si>
-    <t>correct photo from gallery</t>
-  </si>
-  <si>
     <t>SE_05_TEST_07</t>
   </si>
   <si>
     <t>Photo from Camera</t>
   </si>
   <si>
-    <t>correct photo from camera</t>
-  </si>
-  <si>
     <t>SE_05_TEST_08</t>
   </si>
   <si>
-    <t>Add coordinates of the location on the map</t>
-  </si>
-  <si>
     <t>No input (Automatic)</t>
   </si>
   <si>
-    <t>coordinates shown with location on map</t>
-  </si>
-  <si>
     <t>SE_05_TEST_09</t>
   </si>
   <si>
     <t>FR5</t>
   </si>
   <si>
-    <t>Cancel walk</t>
-  </si>
-  <si>
-    <t>presses the cancel button during walk</t>
-  </si>
-  <si>
-    <t>Returns to home screen</t>
-  </si>
-  <si>
-    <t>Tour deleted correctly and returns to home screen</t>
-  </si>
-  <si>
     <t>SE_05_TEST_10</t>
   </si>
   <si>
     <t>FR6</t>
   </si>
   <si>
-    <t>Message formatted as MIME</t>
-  </si>
-  <si>
-    <t>tour object</t>
-  </si>
-  <si>
-    <t>MIME string</t>
-  </si>
-  <si>
-    <t>MIME string is not null</t>
-  </si>
-  <si>
     <t>SE_05_TEST_11</t>
   </si>
   <si>
     <t>FR7</t>
   </si>
   <si>
-    <t>WTC stores tour data when user switches android application</t>
-  </si>
-  <si>
-    <t>switches application</t>
-  </si>
-  <si>
-    <t>Application is idle and stores data</t>
-  </si>
-  <si>
     <t>SE_05_TEST_12</t>
   </si>
   <si>
-    <t>WTC reloads data when user Switches back to the application</t>
-  </si>
-  <si>
-    <t>resume application</t>
-  </si>
-  <si>
-    <t>Reloads correct data</t>
+    <t>FR2</t>
+  </si>
+  <si>
+    <t>SE_05_TEST_13</t>
+  </si>
+  <si>
+    <t>Check that when the user selects 'New walk' and is prompted to enter the short description of the walk and it's name, they are saved.</t>
+  </si>
+  <si>
+    <t>Values are saved for the new 'Tour' object.</t>
+  </si>
+  <si>
+    <t>Walk name &amp; Short description.</t>
+  </si>
+  <si>
+    <t>Data is stored correctly.</t>
+  </si>
+  <si>
+    <t>FR1 / FR2</t>
+  </si>
+  <si>
+    <t>FR3 / FR4</t>
+  </si>
+  <si>
+    <t>New walk is started.</t>
+  </si>
+  <si>
+    <t>GPS coordinates at the user's current position.</t>
+  </si>
+  <si>
+    <t>Coordinates are correct.</t>
+  </si>
+  <si>
+    <t>Check that the name of the tour can be only one word long.</t>
+  </si>
+  <si>
+    <t>Name of the walk.</t>
+  </si>
+  <si>
+    <t>Value is sored and shown in the action bar.</t>
+  </si>
+  <si>
+    <t>Error message if the name is more than one word.</t>
+  </si>
+  <si>
+    <t>Check if a location can be added to the map.</t>
+  </si>
+  <si>
+    <t>Name of location &amp; location coordinates.</t>
+  </si>
+  <si>
+    <t>Location is now added to the map.</t>
+  </si>
+  <si>
+    <t>Correct location coordinates and name are stored.</t>
+  </si>
+  <si>
+    <t>Check if the user can add a short description for a location.</t>
+  </si>
+  <si>
+    <t>Location description.</t>
+  </si>
+  <si>
+    <t>Location description is added to the object.</t>
+  </si>
+  <si>
+    <t>Location has correct description.</t>
+  </si>
+  <si>
+    <t>Check if a time stamp is added to locations.</t>
+  </si>
+  <si>
+    <t>New location added.</t>
+  </si>
+  <si>
+    <t>Timestamp is added to location.</t>
+  </si>
+  <si>
+    <t>Correct time is added.</t>
+  </si>
+  <si>
+    <t>Photo from Gallery.</t>
+  </si>
+  <si>
+    <t>Photo added to the location on the map.</t>
+  </si>
+  <si>
+    <t>Correct photo from gallery added.</t>
+  </si>
+  <si>
+    <t>Correct photo from camera added.</t>
+  </si>
+  <si>
+    <t>Check if the user can add a photo for a location from the gallery.</t>
+  </si>
+  <si>
+    <t>Check if the user can add a photo for a location from the camera.</t>
+  </si>
+  <si>
+    <t>Check if coordinated are added to the map durring the walk.</t>
+  </si>
+  <si>
+    <t>Coordinates of location shown on map.</t>
+  </si>
+  <si>
+    <t>Correct coordinates stored on map.</t>
+  </si>
+  <si>
+    <t>Cancel command.</t>
+  </si>
+  <si>
+    <t>Return to home screen.</t>
+  </si>
+  <si>
+    <t>Check if the walk data is deleted if the user cancels the tour.</t>
+  </si>
+  <si>
+    <t>Tour data is deleted correctly and the home screen is displayed.</t>
+  </si>
+  <si>
+    <t>Check if the data sent to the server is saved as a MIME message.</t>
+  </si>
+  <si>
+    <t>Tour object.</t>
+  </si>
+  <si>
+    <t>MIME string.</t>
+  </si>
+  <si>
+    <t>MIME string is correct and not null.</t>
+  </si>
+  <si>
+    <t>Check that WTC stores tour data when user switches android application.</t>
+  </si>
+  <si>
+    <t>Application switch.</t>
+  </si>
+  <si>
+    <t>Application is idle and stores data.</t>
+  </si>
+  <si>
+    <t>WTC reloads data when user switches back to the application.</t>
+  </si>
+  <si>
+    <t>Resume application.</t>
+  </si>
+  <si>
+    <t>Reloads correct data.</t>
+  </si>
+  <si>
+    <t>Check that the initial point of the tour is set.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +351,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -607,21 +637,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
-    <col min="6" max="1024" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="2" customWidth="1"/>
+    <col min="7" max="1024" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,244 +674,265 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
